--- a/notebooks/Table1_hairsalon.xlsx
+++ b/notebooks/Table1_hairsalon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="664">
   <si>
     <t>Variables</t>
   </si>
@@ -55,15 +55,9 @@
     <t>last60drefundamt</t>
   </si>
   <si>
-    <t>last60misc</t>
-  </si>
-  <si>
     <t>last60dcolor</t>
   </si>
   <si>
-    <t>last60dstyle</t>
-  </si>
-  <si>
     <t>last60dproduct</t>
   </si>
   <si>
@@ -631,264 +625,255 @@
     <t xml:space="preserve">   22.00 (    1.20%)</t>
   </si>
   <si>
+    <t xml:space="preserve">   14.00 (   41.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.00 (    0.00-    0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.30 (   15.10)</t>
+  </si>
+  <si>
+    <t>1,692.00 (   94.40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  101.00 (    5.60%)</t>
+  </si>
+  <si>
+    <t>1,730.00 (   96.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   63.00 (    3.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   65.40 (   36.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   63.00 (   44.70-   77.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.40 (   40.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.00 (    0.00-   44.70)</t>
+  </si>
+  <si>
+    <t>1,737.00 (   96.90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   56.00 (    3.10%)</t>
+  </si>
+  <si>
+    <t>1,761.00 (   98.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32.00 (    1.80%)</t>
+  </si>
+  <si>
+    <t>1,765.00 (   98.40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.00 (    1.60%)</t>
+  </si>
+  <si>
+    <t>1,756.00 (   97.90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.00 (    2.10%)</t>
+  </si>
+  <si>
+    <t>1,763.00 (   98.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.00 (    1.70%)</t>
+  </si>
+  <si>
+    <t>1,764.00 (   98.40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   29.00 (    1.60%)</t>
+  </si>
+  <si>
+    <t>1,752.00 (   97.70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   41.00 (    2.30%)</t>
+  </si>
+  <si>
+    <t>1,755.00 (   97.90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   38.00 (    2.10%)</t>
+  </si>
+  <si>
+    <t>1,779.00 (   99.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.00 (    0.80%)</t>
+  </si>
+  <si>
+    <t>1,786.00 (   99.60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.00 (    0.40%)</t>
+  </si>
+  <si>
     <t>1,785.00 (   99.60%)</t>
   </si>
   <si>
+    <t xml:space="preserve">    8.00 (    0.40%)</t>
+  </si>
+  <si>
+    <t>1,762.00 (   98.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.00 (    1.70%)</t>
+  </si>
+  <si>
+    <t>1,760.00 (   98.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.00 (    1.80%)</t>
+  </si>
+  <si>
+    <t>1,766.00 (   98.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   27.00 (    1.50%)</t>
+  </si>
+  <si>
+    <t>1,772.00 (   98.80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.00 (    1.20%)</t>
+  </si>
+  <si>
+    <t>1,771.00 (   98.80%)</t>
+  </si>
+  <si>
+    <t>1,778.00 (   99.20%)</t>
+  </si>
+  <si>
+    <t>1,789.00 (   99.80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.00 (    0.20%)</t>
+  </si>
+  <si>
+    <t>1,751.00 (   97.70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   42.00 (    2.30%)</t>
+  </si>
+  <si>
+    <t>1,747.00 (   97.40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   46.00 (    2.60%)</t>
+  </si>
+  <si>
+    <t>1,757.00 (   98.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   36.00 (    2.00%)</t>
+  </si>
+  <si>
+    <t>1,754.00 (   97.80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   39.00 (    2.20%)</t>
+  </si>
+  <si>
+    <t>1,759.00 (   98.10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34.00 (    1.90%)</t>
+  </si>
+  <si>
+    <t>1,743.00 (   97.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   50.00 (    2.80%)</t>
+  </si>
+  <si>
+    <t>1,781.00 (   99.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.00 (    0.70%)</t>
+  </si>
+  <si>
+    <t>1,776.00 (   99.10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   17.00 (    0.90%)</t>
+  </si>
+  <si>
+    <t>1,753.00 (   97.80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   40.00 (    2.20%)</t>
+  </si>
+  <si>
+    <t>1,770.00 (   98.70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23.00 (    1.30%)</t>
+  </si>
+  <si>
+    <t>1,790.00 (   99.80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.00 (    0.20%)</t>
+  </si>
+  <si>
+    <t>1,783.00 (   99.40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.00 (    0.60%)</t>
+  </si>
+  <si>
+    <t>1,758.00 (   98.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35.00 (    2.00%)</t>
+  </si>
+  <si>
+    <t>1,744.00 (   97.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   49.00 (    2.70%)</t>
+  </si>
+  <si>
+    <t>1,749.00 (   97.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   44.00 (    2.50%)</t>
+  </si>
+  <si>
+    <t>1,748.00 (   97.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   45.00 (    2.50%)</t>
+  </si>
+  <si>
+    <t>1,745.00 (   97.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.00 (    2.70%)</t>
+  </si>
+  <si>
+    <t>1,784.00 (   99.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.00 (    0.50%)</t>
+  </si>
+  <si>
+    <t>1,791.00 (   99.90%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    2.00 (    0.10%)</t>
   </si>
   <si>
-    <t xml:space="preserve">    6.00 (    0.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.00 (   41.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.00 (    0.00-    0.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   59.00 (  118.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.00 (    0.00-   70.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.30 (   15.10)</t>
-  </si>
-  <si>
-    <t>1,692.00 (   94.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  101.00 (    5.60%)</t>
-  </si>
-  <si>
-    <t>1,730.00 (   96.50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   63.00 (    3.50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   65.40 (   36.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   63.00 (   44.70-   77.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.40 (   40.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.00 (    0.00-   44.70)</t>
-  </si>
-  <si>
-    <t>1,737.00 (   96.90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   56.00 (    3.10%)</t>
-  </si>
-  <si>
-    <t>1,761.00 (   98.20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   32.00 (    1.80%)</t>
-  </si>
-  <si>
-    <t>1,765.00 (   98.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   28.00 (    1.60%)</t>
-  </si>
-  <si>
-    <t>1,756.00 (   97.90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   37.00 (    2.10%)</t>
-  </si>
-  <si>
-    <t>1,763.00 (   98.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.00 (    1.70%)</t>
-  </si>
-  <si>
-    <t>1,764.00 (   98.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   29.00 (    1.60%)</t>
-  </si>
-  <si>
-    <t>1,752.00 (   97.70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   41.00 (    2.30%)</t>
-  </si>
-  <si>
-    <t>1,755.00 (   97.90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   38.00 (    2.10%)</t>
-  </si>
-  <si>
-    <t>1,779.00 (   99.20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.00 (    0.80%)</t>
-  </si>
-  <si>
-    <t>1,786.00 (   99.60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.00 (    0.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.00 (    0.40%)</t>
-  </si>
-  <si>
-    <t>1,762.00 (   98.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.00 (    1.70%)</t>
-  </si>
-  <si>
-    <t>1,760.00 (   98.20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.00 (    1.80%)</t>
-  </si>
-  <si>
-    <t>1,766.00 (   98.50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   27.00 (    1.50%)</t>
-  </si>
-  <si>
-    <t>1,772.00 (   98.80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   21.00 (    1.20%)</t>
-  </si>
-  <si>
-    <t>1,771.00 (   98.80%)</t>
-  </si>
-  <si>
-    <t>1,778.00 (   99.20%)</t>
-  </si>
-  <si>
-    <t>1,789.00 (   99.80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.00 (    0.20%)</t>
-  </si>
-  <si>
-    <t>1,751.00 (   97.70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   42.00 (    2.30%)</t>
-  </si>
-  <si>
-    <t>1,747.00 (   97.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   46.00 (    2.60%)</t>
-  </si>
-  <si>
-    <t>1,757.00 (   98.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   36.00 (    2.00%)</t>
-  </si>
-  <si>
-    <t>1,754.00 (   97.80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   39.00 (    2.20%)</t>
-  </si>
-  <si>
-    <t>1,759.00 (   98.10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   34.00 (    1.90%)</t>
-  </si>
-  <si>
-    <t>1,743.00 (   97.20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   50.00 (    2.80%)</t>
-  </si>
-  <si>
-    <t>1,781.00 (   99.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   12.00 (    0.70%)</t>
-  </si>
-  <si>
-    <t>1,776.00 (   99.10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   17.00 (    0.90%)</t>
-  </si>
-  <si>
-    <t>1,753.00 (   97.80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   40.00 (    2.20%)</t>
-  </si>
-  <si>
-    <t>1,770.00 (   98.70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   23.00 (    1.30%)</t>
-  </si>
-  <si>
-    <t>1,790.00 (   99.80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.00 (    0.20%)</t>
-  </si>
-  <si>
-    <t>1,783.00 (   99.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10.00 (    0.60%)</t>
-  </si>
-  <si>
-    <t>1,758.00 (   98.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   35.00 (    2.00%)</t>
-  </si>
-  <si>
-    <t>1,744.00 (   97.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   49.00 (    2.70%)</t>
-  </si>
-  <si>
-    <t>1,749.00 (   97.50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   44.00 (    2.50%)</t>
-  </si>
-  <si>
-    <t>1,748.00 (   97.50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   45.00 (    2.50%)</t>
-  </si>
-  <si>
-    <t>1,745.00 (   97.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.00 (    2.70%)</t>
-  </si>
-  <si>
-    <t>1,784.00 (   99.50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.00 (    0.50%)</t>
-  </si>
-  <si>
-    <t>1,791.00 (   99.90%)</t>
-  </si>
-  <si>
     <t>1,739.00 (   97.00%)</t>
   </si>
   <si>
@@ -1261,54 +1246,51 @@
     <t xml:space="preserve">    0.00 (    0.00%)</t>
   </si>
   <si>
+    <t xml:space="preserve">    8.20 (   28.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.30 (   17.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  131.00 (   94.90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.00 (    5.10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  137.00 (   99.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   50.50 (   53.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   44.70 (   21.90-   77.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.80 (   42.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  127.00 (   92.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.00 (    8.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  134.00 (   97.10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.00 (    2.90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  135.00 (   97.80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.00 (    2.20%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">  138.00 (  100.00%)</t>
   </si>
   <si>
-    <t xml:space="preserve">    8.20 (   28.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   56.80 (  116.80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.30 (   17.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  131.00 (   94.90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7.00 (    5.10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  137.00 (   99.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   50.50 (   53.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   44.70 (   21.90-   77.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.80 (   42.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  127.00 (   92.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.00 (    8.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  134.00 (   97.10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.00 (    2.90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  135.00 (   97.80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.00 (    2.20%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    5.00 (    3.60%)</t>
   </si>
   <si>
@@ -1489,220 +1471,217 @@
     <t xml:space="preserve">   20.00 (    1.20%)</t>
   </si>
   <si>
+    <t xml:space="preserve">   14.40 (   41.90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.20 (   14.90)</t>
+  </si>
+  <si>
+    <t>1,561.00 (   94.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   94.00 (    5.70%)</t>
+  </si>
+  <si>
+    <t>1,593.00 (   96.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   62.00 (    3.70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   66.70 (   34.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   70.20 (   44.70-   77.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.30 (   40.50)</t>
+  </si>
+  <si>
+    <t>1,610.00 (   97.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   45.00 (    2.70%)</t>
+  </si>
+  <si>
+    <t>1,627.00 (   98.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28.00 (    1.70%)</t>
+  </si>
+  <si>
+    <t>1,628.00 (   98.40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   27.00 (    1.60%)</t>
+  </si>
+  <si>
+    <t>1,622.00 (   98.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33.00 (    2.00%)</t>
+  </si>
+  <si>
+    <t>1,629.00 (   98.40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26.00 (    1.60%)</t>
+  </si>
+  <si>
+    <t>1,614.00 (   97.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   41.00 (    2.50%)</t>
+  </si>
+  <si>
+    <t>1,616.00 (   97.60%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   39.00 (    2.40%)</t>
+  </si>
+  <si>
+    <t>1,619.00 (   97.80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   36.00 (    2.20%)</t>
+  </si>
+  <si>
+    <t>1,642.00 (   99.20%)</t>
+  </si>
+  <si>
+    <t>1,651.00 (   99.80%)</t>
+  </si>
+  <si>
     <t>1,647.00 (   99.50%)</t>
   </si>
   <si>
+    <t xml:space="preserve">    8.00 (    0.50%)</t>
+  </si>
+  <si>
+    <t>1,624.00 (   98.10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31.00 (    1.90%)</t>
+  </si>
+  <si>
+    <t>1,626.00 (   98.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   29.00 (    1.80%)</t>
+  </si>
+  <si>
+    <t>1,636.00 (   98.90%)</t>
+  </si>
+  <si>
+    <t>1,635.00 (   98.80%)</t>
+  </si>
+  <si>
+    <t>1,640.00 (   99.10%)</t>
+  </si>
+  <si>
+    <t>1,648.00 (   99.60%)</t>
+  </si>
+  <si>
+    <t>1,617.00 (   97.70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   38.00 (    2.30%)</t>
+  </si>
+  <si>
+    <t>1,623.00 (   98.10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32.00 (    1.90%)</t>
+  </si>
+  <si>
+    <t>1,613.00 (   97.50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   42.00 (    2.50%)</t>
+  </si>
+  <si>
+    <t>1,609.00 (   97.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   46.00 (    2.80%)</t>
+  </si>
+  <si>
+    <t>1,643.00 (   99.30%)</t>
+  </si>
+  <si>
+    <t>1,644.00 (   99.30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.00 (    0.70%)</t>
+  </si>
+  <si>
+    <t>1,639.00 (   99.00%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.00 (    1.00%)</t>
+  </si>
+  <si>
+    <t>1,625.00 (   98.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.00 (    1.80%)</t>
+  </si>
+  <si>
+    <t>1,621.00 (   97.90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34.00 (    2.10%)</t>
+  </si>
+  <si>
+    <t>1,618.00 (   97.80%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.00 (    2.20%)</t>
+  </si>
+  <si>
+    <t>1,620.00 (   97.90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35.00 (    2.10%)</t>
+  </si>
+  <si>
+    <t>1,633.00 (   98.70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.00 (    1.30%)</t>
+  </si>
+  <si>
+    <t>1,652.00 (   99.80%)</t>
+  </si>
+  <si>
+    <t>1,646.00 (   99.50%)</t>
+  </si>
+  <si>
+    <t>1,608.00 (   97.20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   47.00 (    2.80%)</t>
+  </si>
+  <si>
+    <t>1,607.00 (   97.10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.00 (    2.90%)</t>
+  </si>
+  <si>
+    <t>1,653.00 (   99.90%)</t>
+  </si>
+  <si>
+    <t>1,634.00 (   98.70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.00 (    1.30%)</t>
+  </si>
+  <si>
+    <t>1,649.00 (   99.60%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    6.00 (    0.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.40 (   41.90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   59.20 (  118.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.20 (   14.90)</t>
-  </si>
-  <si>
-    <t>1,561.00 (   94.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   94.00 (    5.70%)</t>
-  </si>
-  <si>
-    <t>1,593.00 (   96.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   62.00 (    3.70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   66.70 (   34.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   70.20 (   44.70-   77.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.30 (   40.50)</t>
-  </si>
-  <si>
-    <t>1,610.00 (   97.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   45.00 (    2.70%)</t>
-  </si>
-  <si>
-    <t>1,627.00 (   98.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   28.00 (    1.70%)</t>
-  </si>
-  <si>
-    <t>1,628.00 (   98.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   27.00 (    1.60%)</t>
-  </si>
-  <si>
-    <t>1,622.00 (   98.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   33.00 (    2.00%)</t>
-  </si>
-  <si>
-    <t>1,629.00 (   98.40%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   26.00 (    1.60%)</t>
-  </si>
-  <si>
-    <t>1,614.00 (   97.50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   41.00 (    2.50%)</t>
-  </si>
-  <si>
-    <t>1,616.00 (   97.60%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   39.00 (    2.40%)</t>
-  </si>
-  <si>
-    <t>1,619.00 (   97.80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   36.00 (    2.20%)</t>
-  </si>
-  <si>
-    <t>1,642.00 (   99.20%)</t>
-  </si>
-  <si>
-    <t>1,651.00 (   99.80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.00 (    0.50%)</t>
-  </si>
-  <si>
-    <t>1,624.00 (   98.10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   31.00 (    1.90%)</t>
-  </si>
-  <si>
-    <t>1,626.00 (   98.20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   29.00 (    1.80%)</t>
-  </si>
-  <si>
-    <t>1,636.00 (   98.90%)</t>
-  </si>
-  <si>
-    <t>1,635.00 (   98.80%)</t>
-  </si>
-  <si>
-    <t>1,640.00 (   99.10%)</t>
-  </si>
-  <si>
-    <t>1,648.00 (   99.60%)</t>
-  </si>
-  <si>
-    <t>1,617.00 (   97.70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   38.00 (    2.30%)</t>
-  </si>
-  <si>
-    <t>1,623.00 (   98.10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   32.00 (    1.90%)</t>
-  </si>
-  <si>
-    <t>1,613.00 (   97.50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   42.00 (    2.50%)</t>
-  </si>
-  <si>
-    <t>1,609.00 (   97.20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   46.00 (    2.80%)</t>
-  </si>
-  <si>
-    <t>1,643.00 (   99.30%)</t>
-  </si>
-  <si>
-    <t>1,644.00 (   99.30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.00 (    0.70%)</t>
-  </si>
-  <si>
-    <t>1,639.00 (   99.00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   16.00 (    1.00%)</t>
-  </si>
-  <si>
-    <t>1,625.00 (   98.20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.00 (    1.80%)</t>
-  </si>
-  <si>
-    <t>1,621.00 (   97.90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   34.00 (    2.10%)</t>
-  </si>
-  <si>
-    <t>1,618.00 (   97.80%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   37.00 (    2.20%)</t>
-  </si>
-  <si>
-    <t>1,620.00 (   97.90%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   35.00 (    2.10%)</t>
-  </si>
-  <si>
-    <t>1,633.00 (   98.70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   22.00 (    1.30%)</t>
-  </si>
-  <si>
-    <t>1,652.00 (   99.80%)</t>
-  </si>
-  <si>
-    <t>1,646.00 (   99.50%)</t>
-  </si>
-  <si>
-    <t>1,608.00 (   97.20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   47.00 (    2.80%)</t>
-  </si>
-  <si>
-    <t>1,607.00 (   97.10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.00 (    2.90%)</t>
-  </si>
-  <si>
-    <t>1,653.00 (   99.90%)</t>
-  </si>
-  <si>
-    <t>1,634.00 (   98.70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   21.00 (    1.30%)</t>
-  </si>
-  <si>
-    <t>1,649.00 (   99.60%)</t>
   </si>
   <si>
     <t>1,654.00 (   99.90%)</t>
@@ -2384,7 +2363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2415,7 +2394,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2">
         <v>1793</v>
@@ -2435,13 +2414,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2452,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F4">
         <v>0.281</v>
@@ -2472,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2489,13 +2468,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F6">
         <v>0.9350000000000001</v>
@@ -2509,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2526,13 +2505,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F8">
         <v>0.439</v>
@@ -2546,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2563,13 +2542,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F10">
         <v>0.002</v>
@@ -2580,16 +2559,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E11" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F11">
         <v>0.542</v>
@@ -2600,16 +2579,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2620,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2637,13 +2616,13 @@
         <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F14">
         <v>0.376</v>
@@ -2657,10 +2636,10 @@
         <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2671,10 +2650,10 @@
         <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2685,10 +2664,10 @@
         <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2699,10 +2678,10 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2710,70 +2689,73 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E19" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E20" t="s">
-        <v>491</v>
+        <v>485</v>
+      </c>
+      <c r="F20">
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
-        <v>25</v>
+      <c r="B21" t="s">
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21">
-        <v>0.715</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E22" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F22">
+        <v>0.445</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2781,258 +2763,255 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>416</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>493</v>
-      </c>
-      <c r="F23">
-        <v>0.08799999999999999</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>188</v>
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>412</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
-        <v>187</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D25" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E25" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F25">
-        <v>0.822</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>188</v>
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>414</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
-        <v>187</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E27" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F27">
-        <v>0.445</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>491</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E29" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E30" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F30">
-        <v>0.916</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>498</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D32" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E32" t="s">
-        <v>499</v>
-      </c>
-      <c r="F32">
-        <v>0.121</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B33" t="s">
-        <v>187</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D33" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E33" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>188</v>
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E34" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" t="s">
-        <v>187</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E35" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F35">
-        <v>0.911</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>188</v>
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3040,36 +3019,36 @@
         <v>21</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D37" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="E37" t="s">
-        <v>503</v>
+        <v>499</v>
+      </c>
+      <c r="F37">
+        <v>0.121</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E38" t="s">
-        <v>504</v>
-      </c>
-      <c r="F38">
-        <v>0.002</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3077,36 +3056,36 @@
         <v>22</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E39" t="s">
-        <v>505</v>
+        <v>501</v>
+      </c>
+      <c r="F39">
+        <v>0.121</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="E40" t="s">
-        <v>506</v>
-      </c>
-      <c r="F40">
-        <v>0.121</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3114,36 +3093,36 @@
         <v>23</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="E41" t="s">
-        <v>507</v>
+        <v>497</v>
+      </c>
+      <c r="F41">
+        <v>0.121</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D42" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E42" t="s">
-        <v>508</v>
-      </c>
-      <c r="F42">
-        <v>0.121</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3151,36 +3130,36 @@
         <v>24</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D43" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E43" t="s">
-        <v>509</v>
+        <v>503</v>
+      </c>
+      <c r="F43">
+        <v>0.121</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D44" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E44" t="s">
-        <v>510</v>
-      </c>
-      <c r="F44">
-        <v>0.121</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3188,36 +3167,36 @@
         <v>25</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D45" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E45" t="s">
         <v>505</v>
       </c>
+      <c r="F45">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E46" t="s">
         <v>506</v>
-      </c>
-      <c r="F46">
-        <v>0.121</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3225,36 +3204,36 @@
         <v>26</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="E47" t="s">
-        <v>511</v>
+        <v>507</v>
+      </c>
+      <c r="F47">
+        <v>0.121</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="E48" t="s">
-        <v>512</v>
-      </c>
-      <c r="F48">
-        <v>0.121</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3262,36 +3241,36 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="E49" t="s">
-        <v>513</v>
+        <v>509</v>
+      </c>
+      <c r="F49">
+        <v>0.121</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
         <v>414</v>
       </c>
       <c r="E50" t="s">
-        <v>514</v>
-      </c>
-      <c r="F50">
-        <v>0.07000000000000001</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3299,36 +3278,36 @@
         <v>28</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D51" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E51" t="s">
-        <v>515</v>
+        <v>483</v>
+      </c>
+      <c r="F51">
+        <v>0.121</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="E52" t="s">
-        <v>516</v>
-      </c>
-      <c r="F52">
-        <v>0.121</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3336,36 +3315,36 @@
         <v>29</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="E53" t="s">
-        <v>517</v>
+        <v>247</v>
+      </c>
+      <c r="F53">
+        <v>0.121</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E54" t="s">
-        <v>518</v>
-      </c>
-      <c r="F54">
-        <v>0.121</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3373,36 +3352,36 @@
         <v>30</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E55" t="s">
-        <v>519</v>
+        <v>513</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E56" t="s">
-        <v>489</v>
-      </c>
-      <c r="F56">
-        <v>0.121</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3410,36 +3389,36 @@
         <v>31</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E57" t="s">
-        <v>520</v>
+        <v>497</v>
+      </c>
+      <c r="F57">
+        <v>0.121</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="E58" t="s">
-        <v>253</v>
-      </c>
-      <c r="F58">
-        <v>0.121</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3447,36 +3426,36 @@
         <v>32</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="D59" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="E59" t="s">
-        <v>491</v>
+        <v>515</v>
+      </c>
+      <c r="F59">
+        <v>0.121</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E60" t="s">
-        <v>521</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3484,36 +3463,36 @@
         <v>33</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D61" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E61" t="s">
-        <v>505</v>
+        <v>517</v>
+      </c>
+      <c r="F61">
+        <v>0.121</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D62" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E62" t="s">
-        <v>506</v>
-      </c>
-      <c r="F62">
-        <v>0.121</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3521,36 +3500,36 @@
         <v>34</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D63" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E63" t="s">
-        <v>522</v>
+        <v>501</v>
+      </c>
+      <c r="F63">
+        <v>0.121</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D64" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E64" t="s">
-        <v>523</v>
-      </c>
-      <c r="F64">
-        <v>0.121</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3558,36 +3537,36 @@
         <v>35</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="E65" t="s">
-        <v>524</v>
+        <v>499</v>
+      </c>
+      <c r="F65">
+        <v>0.262</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="D66" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E66" t="s">
-        <v>525</v>
-      </c>
-      <c r="F66">
-        <v>0.121</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3595,36 +3574,36 @@
         <v>36</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D67" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E67" t="s">
-        <v>509</v>
+        <v>499</v>
+      </c>
+      <c r="F67">
+        <v>0.121</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="E68" t="s">
-        <v>510</v>
-      </c>
-      <c r="F68">
-        <v>0.121</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3632,36 +3611,36 @@
         <v>37</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="E69" t="s">
-        <v>507</v>
+        <v>309</v>
+      </c>
+      <c r="F69">
+        <v>0.121</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D70" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E70" t="s">
-        <v>508</v>
-      </c>
-      <c r="F70">
-        <v>0.262</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3669,36 +3648,36 @@
         <v>38</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D71" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="E71" t="s">
-        <v>507</v>
+        <v>484</v>
+      </c>
+      <c r="F71">
+        <v>0.121</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D72" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E72" t="s">
-        <v>508</v>
-      </c>
-      <c r="F72">
-        <v>0.121</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3706,36 +3685,36 @@
         <v>39</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="D73" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E73" t="s">
-        <v>526</v>
+        <v>482</v>
+      </c>
+      <c r="F73">
+        <v>0.622</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D74" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E74" t="s">
-        <v>314</v>
-      </c>
-      <c r="F74">
-        <v>0.121</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3743,36 +3722,36 @@
         <v>40</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E75" t="s">
-        <v>527</v>
+        <v>233</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E76" t="s">
-        <v>490</v>
-      </c>
-      <c r="F76">
-        <v>0.121</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3780,36 +3759,36 @@
         <v>41</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E77" t="s">
-        <v>528</v>
+        <v>247</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E78" t="s">
-        <v>488</v>
-      </c>
-      <c r="F78">
-        <v>0.622</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3817,36 +3796,36 @@
         <v>42</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D79" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E79" t="s">
-        <v>529</v>
+        <v>513</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D80" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3854,36 +3833,36 @@
         <v>43</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D81" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E81" t="s">
-        <v>520</v>
+        <v>523</v>
+      </c>
+      <c r="F81">
+        <v>0.121</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D82" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E82" t="s">
-        <v>253</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3891,36 +3870,36 @@
         <v>44</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D83" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E83" t="s">
-        <v>491</v>
+        <v>525</v>
+      </c>
+      <c r="F83">
+        <v>0.121</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D84" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E84" t="s">
-        <v>521</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3928,36 +3907,36 @@
         <v>45</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D85" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E85" t="s">
-        <v>530</v>
+        <v>527</v>
+      </c>
+      <c r="F85">
+        <v>0.121</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D86" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E86" t="s">
-        <v>531</v>
-      </c>
-      <c r="F86">
-        <v>0.121</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3965,36 +3944,36 @@
         <v>46</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E87" t="s">
-        <v>532</v>
+        <v>509</v>
+      </c>
+      <c r="F87">
+        <v>0.107</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s">
         <v>228</v>
       </c>
       <c r="D88" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E88" t="s">
-        <v>533</v>
-      </c>
-      <c r="F88">
-        <v>0.121</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4002,36 +3981,36 @@
         <v>47</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="D89" t="s">
         <v>427</v>
       </c>
       <c r="E89" t="s">
-        <v>534</v>
+        <v>525</v>
+      </c>
+      <c r="F89">
+        <v>0.113</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E90" t="s">
-        <v>535</v>
-      </c>
-      <c r="F90">
-        <v>0.121</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4039,36 +4018,36 @@
         <v>48</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D91" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E91" t="s">
-        <v>517</v>
+        <v>523</v>
+      </c>
+      <c r="F91">
+        <v>0.121</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D92" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E92" t="s">
-        <v>518</v>
-      </c>
-      <c r="F92">
-        <v>0.107</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4076,36 +4055,36 @@
         <v>49</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D93" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="E93" t="s">
-        <v>532</v>
+        <v>525</v>
+      </c>
+      <c r="F93">
+        <v>0.121</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E94" t="s">
-        <v>533</v>
-      </c>
-      <c r="F94">
-        <v>0.113</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4113,36 +4092,36 @@
         <v>50</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" t="s">
         <v>421</v>
       </c>
       <c r="E95" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="F95">
+        <v>0.121</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E96" t="s">
-        <v>531</v>
-      </c>
-      <c r="F96">
-        <v>0.121</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4150,36 +4129,36 @@
         <v>51</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E97" t="s">
-        <v>532</v>
+        <v>309</v>
+      </c>
+      <c r="F97">
+        <v>0.121</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D98" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E98" t="s">
-        <v>533</v>
-      </c>
-      <c r="F98">
-        <v>0.121</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4187,36 +4166,36 @@
         <v>52</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D99" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="E99" t="s">
-        <v>536</v>
+        <v>261</v>
+      </c>
+      <c r="F99">
+        <v>0.616</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D100" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E100" t="s">
-        <v>537</v>
-      </c>
-      <c r="F100">
-        <v>0.121</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4224,36 +4203,36 @@
         <v>53</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D101" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E101" t="s">
-        <v>526</v>
+        <v>532</v>
+      </c>
+      <c r="F101">
+        <v>0.121</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D102" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E102" t="s">
-        <v>314</v>
-      </c>
-      <c r="F102">
-        <v>0.121</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4261,36 +4240,36 @@
         <v>54</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E103" t="s">
-        <v>538</v>
+        <v>534</v>
+      </c>
+      <c r="F103">
+        <v>0.121</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D104" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="E104" t="s">
-        <v>267</v>
-      </c>
-      <c r="F104">
-        <v>0.616</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4298,36 +4277,36 @@
         <v>55</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D105" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E105" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="F105">
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D106" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E106" t="s">
-        <v>540</v>
-      </c>
-      <c r="F106">
-        <v>0.121</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4335,36 +4314,36 @@
         <v>56</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D107" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="E107" t="s">
-        <v>541</v>
+        <v>507</v>
+      </c>
+      <c r="F107">
+        <v>0.121</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D108" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E108" t="s">
-        <v>542</v>
-      </c>
-      <c r="F108">
-        <v>0.121</v>
+        <v>537</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4372,36 +4351,36 @@
         <v>57</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D109" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="E109" t="s">
-        <v>543</v>
+        <v>538</v>
+      </c>
+      <c r="F109">
+        <v>0.121</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D110" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="E110" t="s">
-        <v>544</v>
-      </c>
-      <c r="F110">
-        <v>0.08500000000000001</v>
+        <v>522</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4409,36 +4388,36 @@
         <v>58</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D111" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="E111" t="s">
-        <v>515</v>
+        <v>523</v>
+      </c>
+      <c r="F111">
+        <v>0.121</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D112" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E112" t="s">
-        <v>516</v>
-      </c>
-      <c r="F112">
-        <v>0.121</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4446,36 +4425,36 @@
         <v>59</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D113" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E113" t="s">
-        <v>545</v>
+        <v>540</v>
+      </c>
+      <c r="F113">
+        <v>0.121</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E114" t="s">
-        <v>546</v>
-      </c>
-      <c r="F114">
-        <v>0.121</v>
+        <v>541</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4483,36 +4462,36 @@
         <v>60</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D115" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="E115" t="s">
-        <v>530</v>
+        <v>542</v>
+      </c>
+      <c r="F115">
+        <v>0.121</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D116" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E116" t="s">
-        <v>531</v>
-      </c>
-      <c r="F116">
-        <v>0.121</v>
+        <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4520,36 +4499,36 @@
         <v>61</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D117" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="E117" t="s">
-        <v>547</v>
+        <v>540</v>
+      </c>
+      <c r="F117">
+        <v>0.121</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="D118" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E118" t="s">
-        <v>548</v>
-      </c>
-      <c r="F118">
-        <v>0.121</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4557,36 +4536,36 @@
         <v>62</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D119" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="E119" t="s">
-        <v>549</v>
+        <v>540</v>
+      </c>
+      <c r="F119">
+        <v>0.121</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D120" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E120" t="s">
-        <v>550</v>
-      </c>
-      <c r="F120">
-        <v>0.121</v>
+        <v>543</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4594,36 +4573,36 @@
         <v>63</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D121" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="E121" t="s">
-        <v>547</v>
+        <v>544</v>
+      </c>
+      <c r="F121">
+        <v>0.121</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D122" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E122" t="s">
-        <v>548</v>
-      </c>
-      <c r="F122">
-        <v>0.121</v>
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4631,36 +4610,36 @@
         <v>64</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="D123" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E123" t="s">
-        <v>547</v>
+        <v>269</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="D124" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E124" t="s">
-        <v>548</v>
-      </c>
-      <c r="F124">
-        <v>0.121</v>
+        <v>546</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4668,36 +4647,36 @@
         <v>65</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D125" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="E125" t="s">
-        <v>551</v>
+        <v>283</v>
+      </c>
+      <c r="F125">
+        <v>0.121</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E126" t="s">
-        <v>552</v>
-      </c>
-      <c r="F126">
-        <v>0.121</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4705,36 +4684,36 @@
         <v>66</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D127" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E127" t="s">
-        <v>553</v>
+        <v>497</v>
+      </c>
+      <c r="F127">
+        <v>0.015</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D128" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E128" t="s">
-        <v>275</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4742,36 +4721,36 @@
         <v>67</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D129" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="E129" t="s">
-        <v>554</v>
+        <v>548</v>
+      </c>
+      <c r="F129">
+        <v>0.121</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D130" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E130" t="s">
-        <v>289</v>
-      </c>
-      <c r="F130">
-        <v>0.121</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4779,36 +4758,36 @@
         <v>68</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D131" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="E131" t="s">
-        <v>505</v>
+        <v>527</v>
+      </c>
+      <c r="F131">
+        <v>0.121</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D132" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E132" t="s">
         <v>506</v>
-      </c>
-      <c r="F132">
-        <v>0.015</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4816,36 +4795,36 @@
         <v>69</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D133" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="E133" t="s">
-        <v>555</v>
+        <v>507</v>
+      </c>
+      <c r="F133">
+        <v>0.249</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D134" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E134" t="s">
-        <v>556</v>
-      </c>
-      <c r="F134">
-        <v>0.121</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4853,36 +4832,36 @@
         <v>70</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D135" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E135" t="s">
-        <v>534</v>
+        <v>540</v>
+      </c>
+      <c r="F135">
+        <v>0.121</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D136" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E136" t="s">
-        <v>535</v>
-      </c>
-      <c r="F136">
-        <v>0.121</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4890,36 +4869,36 @@
         <v>71</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D137" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="E137" t="s">
-        <v>515</v>
+        <v>550</v>
+      </c>
+      <c r="F137">
+        <v>0.047</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D138" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="E138" t="s">
-        <v>516</v>
-      </c>
-      <c r="F138">
-        <v>0.249</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4927,36 +4906,36 @@
         <v>72</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D139" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E139" t="s">
-        <v>547</v>
+        <v>527</v>
+      </c>
+      <c r="F139">
+        <v>0.121</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="D140" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E140" t="s">
-        <v>548</v>
-      </c>
-      <c r="F140">
-        <v>0.121</v>
+        <v>546</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4964,36 +4943,36 @@
         <v>73</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D141" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E141" t="s">
-        <v>557</v>
+        <v>283</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D142" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E142" t="s">
-        <v>558</v>
-      </c>
-      <c r="F142">
-        <v>0.047</v>
+        <v>551</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5001,36 +4980,36 @@
         <v>74</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D143" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E143" t="s">
-        <v>534</v>
+        <v>285</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="D144" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E144" t="s">
-        <v>535</v>
-      </c>
-      <c r="F144">
-        <v>0.121</v>
+        <v>552</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5038,36 +5017,36 @@
         <v>75</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="D145" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E145" t="s">
-        <v>554</v>
+        <v>553</v>
+      </c>
+      <c r="F145">
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D146" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
-      </c>
-      <c r="F146">
-        <v>1</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5075,36 +5054,36 @@
         <v>76</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D147" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="E147" t="s">
-        <v>559</v>
+        <v>550</v>
+      </c>
+      <c r="F147">
+        <v>0.486</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="D148" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E148" t="s">
-        <v>206</v>
-      </c>
-      <c r="F148">
-        <v>1</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5112,36 +5091,36 @@
         <v>77</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D149" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E149" t="s">
-        <v>560</v>
+        <v>513</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D150" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E150" t="s">
-        <v>561</v>
-      </c>
-      <c r="F150">
-        <v>0.4</v>
+        <v>511</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5149,36 +5128,36 @@
         <v>78</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="D151" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="E151" t="s">
-        <v>557</v>
+        <v>247</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D152" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="E152" t="s">
-        <v>558</v>
-      </c>
-      <c r="F152">
-        <v>0.486</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5186,36 +5165,36 @@
         <v>79</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="D153" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E153" t="s">
-        <v>491</v>
+        <v>555</v>
+      </c>
+      <c r="F153">
+        <v>0.121</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="D154" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E154" t="s">
-        <v>521</v>
-      </c>
-      <c r="F154">
-        <v>1</v>
+        <v>512</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5223,36 +5202,36 @@
         <v>80</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="D155" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E155" t="s">
-        <v>520</v>
+        <v>513</v>
+      </c>
+      <c r="F155">
+        <v>0.121</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="D156" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E156" t="s">
-        <v>253</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
+        <v>521</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5260,36 +5239,36 @@
         <v>81</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D157" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="E157" t="s">
-        <v>562</v>
+        <v>233</v>
+      </c>
+      <c r="F157">
+        <v>0.121</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D158" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E158" t="s">
-        <v>492</v>
-      </c>
-      <c r="F158">
-        <v>0.121</v>
+        <v>511</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5297,36 +5276,36 @@
         <v>82</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D159" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="E159" t="s">
-        <v>491</v>
+        <v>247</v>
+      </c>
+      <c r="F159">
+        <v>0.121</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D160" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="E160" t="s">
-        <v>521</v>
-      </c>
-      <c r="F160">
-        <v>0.121</v>
+        <v>545</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5334,36 +5313,36 @@
         <v>83</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D161" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E161" t="s">
-        <v>529</v>
+        <v>269</v>
+      </c>
+      <c r="F161">
+        <v>0.121</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D162" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E162" t="s">
-        <v>240</v>
-      </c>
-      <c r="F162">
-        <v>0.121</v>
+        <v>556</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5371,36 +5350,36 @@
         <v>84</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D163" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E163" t="s">
-        <v>520</v>
+        <v>293</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D164" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="E164" t="s">
-        <v>253</v>
-      </c>
-      <c r="F164">
-        <v>0.121</v>
+        <v>557</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5408,36 +5387,36 @@
         <v>85</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
         <v>295</v>
       </c>
       <c r="D165" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="E165" t="s">
-        <v>553</v>
+        <v>558</v>
+      </c>
+      <c r="F165">
+        <v>0.766</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="s">
         <v>296</v>
       </c>
       <c r="D166" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="E166" t="s">
-        <v>275</v>
-      </c>
-      <c r="F166">
-        <v>0.121</v>
+        <v>539</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5445,21 +5424,24 @@
         <v>86</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="s">
         <v>297</v>
       </c>
       <c r="D167" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="E167" t="s">
-        <v>563</v>
+        <v>540</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5468,13 +5450,10 @@
         <v>298</v>
       </c>
       <c r="D168" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="E168" t="s">
-        <v>298</v>
-      </c>
-      <c r="F168">
-        <v>1</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5488,30 +5467,30 @@
         <v>299</v>
       </c>
       <c r="D169" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E169" t="s">
-        <v>564</v>
+        <v>560</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D170" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E170" t="s">
-        <v>565</v>
-      </c>
-      <c r="F170">
-        <v>0.766</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5519,36 +5498,36 @@
         <v>88</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D171" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E171" t="s">
-        <v>547</v>
+        <v>291</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="D172" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="E172" t="s">
-        <v>548</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5559,33 +5538,33 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="D173" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="E173" t="s">
-        <v>566</v>
+        <v>499</v>
+      </c>
+      <c r="F173">
+        <v>0.262</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D174" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="E174" t="s">
-        <v>567</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
+        <v>556</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5593,36 +5572,36 @@
         <v>90</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D175" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E175" t="s">
-        <v>568</v>
+        <v>293</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D176" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E176" t="s">
-        <v>296</v>
-      </c>
-      <c r="F176">
-        <v>1</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5630,36 +5609,36 @@
         <v>91</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="D177" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E177" t="s">
-        <v>507</v>
+        <v>483</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="D178" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E178" t="s">
-        <v>508</v>
-      </c>
-      <c r="F178">
-        <v>0.262</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5667,36 +5646,36 @@
         <v>92</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D179" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="E179" t="s">
-        <v>563</v>
+        <v>231</v>
+      </c>
+      <c r="F179">
+        <v>0.121</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D180" t="s">
         <v>414</v>
       </c>
       <c r="E180" t="s">
-        <v>298</v>
-      </c>
-      <c r="F180">
-        <v>1</v>
+        <v>556</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5704,36 +5683,36 @@
         <v>93</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D181" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E181" t="s">
-        <v>519</v>
+        <v>293</v>
+      </c>
+      <c r="F181">
+        <v>0.102</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="D182" t="s">
         <v>420</v>
       </c>
       <c r="E182" t="s">
-        <v>489</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
+        <v>561</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5741,36 +5720,36 @@
         <v>94</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="D183" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E183" t="s">
-        <v>569</v>
+        <v>291</v>
+      </c>
+      <c r="F183">
+        <v>0.121</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="D184" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="E184" t="s">
-        <v>238</v>
-      </c>
-      <c r="F184">
-        <v>0.121</v>
+        <v>494</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5778,36 +5757,36 @@
         <v>95</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D185" t="s">
         <v>421</v>
       </c>
       <c r="E185" t="s">
-        <v>563</v>
+        <v>495</v>
+      </c>
+      <c r="F185">
+        <v>0.121</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="D186" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E186" t="s">
-        <v>298</v>
-      </c>
-      <c r="F186">
-        <v>0.102</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5815,36 +5794,36 @@
         <v>96</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D187" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="E187" t="s">
-        <v>568</v>
+        <v>283</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D188" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E188" t="s">
-        <v>296</v>
-      </c>
-      <c r="F188">
-        <v>0.121</v>
+        <v>556</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5852,36 +5831,36 @@
         <v>97</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D189" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="E189" t="s">
-        <v>503</v>
+        <v>293</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D190" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E190" t="s">
-        <v>504</v>
-      </c>
-      <c r="F190">
-        <v>0.121</v>
+        <v>551</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5889,36 +5868,36 @@
         <v>98</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D191" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E191" t="s">
-        <v>554</v>
+        <v>285</v>
+      </c>
+      <c r="F191">
+        <v>0.121</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D192" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E192" t="s">
-        <v>289</v>
-      </c>
-      <c r="F192">
-        <v>1</v>
+        <v>545</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5926,36 +5905,36 @@
         <v>99</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D193" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E193" t="s">
-        <v>563</v>
+        <v>269</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D194" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E194" t="s">
-        <v>298</v>
-      </c>
-      <c r="F194">
-        <v>1</v>
+        <v>510</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5963,36 +5942,36 @@
         <v>100</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="D195" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E195" t="s">
-        <v>559</v>
+        <v>483</v>
+      </c>
+      <c r="F195">
+        <v>0.616</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="D196" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E196" t="s">
-        <v>206</v>
-      </c>
-      <c r="F196">
-        <v>0.121</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6000,36 +5979,36 @@
         <v>101</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D197" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E197" t="s">
-        <v>553</v>
+        <v>509</v>
+      </c>
+      <c r="F197">
+        <v>0.121</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D198" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E198" t="s">
-        <v>275</v>
-      </c>
-      <c r="F198">
-        <v>1</v>
+        <v>531</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6037,36 +6016,36 @@
         <v>102</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D199" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E199" t="s">
-        <v>519</v>
+        <v>532</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D200" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="E200" t="s">
-        <v>489</v>
-      </c>
-      <c r="F200">
-        <v>0.616</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6074,36 +6053,36 @@
         <v>103</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="D201" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E201" t="s">
-        <v>517</v>
+        <v>503</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D202" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E202" t="s">
-        <v>518</v>
-      </c>
-      <c r="F202">
-        <v>0.121</v>
+        <v>512</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6111,36 +6090,36 @@
         <v>104</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="D203" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E203" t="s">
-        <v>539</v>
+        <v>513</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D204" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E204" t="s">
-        <v>540</v>
-      </c>
-      <c r="F204">
-        <v>1</v>
+        <v>563</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6148,36 +6127,36 @@
         <v>105</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="D205" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="E205" t="s">
-        <v>511</v>
+        <v>564</v>
+      </c>
+      <c r="F205">
+        <v>0.121</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D206" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E206" t="s">
-        <v>512</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
+        <v>565</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6185,36 +6164,36 @@
         <v>106</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="D207" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E207" t="s">
-        <v>491</v>
+        <v>409</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="D208" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E208" t="s">
-        <v>521</v>
-      </c>
-      <c r="F208">
-        <v>1</v>
+        <v>545</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6222,36 +6201,36 @@
         <v>107</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="D209" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="E209" t="s">
-        <v>570</v>
+        <v>269</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D210" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E210" t="s">
-        <v>571</v>
-      </c>
-      <c r="F210">
-        <v>0.121</v>
+        <v>566</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6259,36 +6238,36 @@
         <v>108</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="D211" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E211" t="s">
-        <v>572</v>
+        <v>567</v>
+      </c>
+      <c r="F211">
+        <v>0.354</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="D212" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E212" t="s">
-        <v>414</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
+        <v>518</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6296,36 +6275,36 @@
         <v>109</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="D213" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E213" t="s">
-        <v>553</v>
+        <v>309</v>
+      </c>
+      <c r="F213">
+        <v>0.392</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D214" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E214" t="s">
-        <v>275</v>
-      </c>
-      <c r="F214">
-        <v>1</v>
+        <v>521</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6333,36 +6312,36 @@
         <v>110</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="D215" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="E215" t="s">
-        <v>573</v>
+        <v>233</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="D216" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="E216" t="s">
-        <v>574</v>
-      </c>
-      <c r="F216">
-        <v>0.354</v>
+        <v>530</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6370,36 +6349,36 @@
         <v>111</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="D217" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E217" t="s">
-        <v>526</v>
+        <v>261</v>
+      </c>
+      <c r="F217">
+        <v>0.616</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D218" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E218" t="s">
-        <v>314</v>
-      </c>
-      <c r="F218">
-        <v>0.392</v>
+        <v>568</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6407,36 +6386,36 @@
         <v>112</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="D219" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E219" t="s">
-        <v>529</v>
+        <v>569</v>
+      </c>
+      <c r="F219">
+        <v>0.191</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="D220" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="E220" t="s">
-        <v>240</v>
-      </c>
-      <c r="F220">
-        <v>1</v>
+        <v>570</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6444,36 +6423,36 @@
         <v>113</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="D221" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="E221" t="s">
-        <v>538</v>
+        <v>571</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D222" t="s">
         <v>414</v>
       </c>
       <c r="E222" t="s">
-        <v>267</v>
-      </c>
-      <c r="F222">
-        <v>0.616</v>
+        <v>512</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6481,36 +6460,36 @@
         <v>114</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="D223" t="s">
         <v>408</v>
       </c>
       <c r="E223" t="s">
-        <v>575</v>
+        <v>513</v>
+      </c>
+      <c r="F223">
+        <v>0.121</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="D224" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E224" t="s">
-        <v>576</v>
-      </c>
-      <c r="F224">
-        <v>0.191</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6518,36 +6497,36 @@
         <v>115</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="D225" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="E225" t="s">
-        <v>577</v>
+        <v>285</v>
+      </c>
+      <c r="F225">
+        <v>0.121</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="D226" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E226" t="s">
-        <v>578</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
+        <v>531</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6555,36 +6534,36 @@
         <v>116</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D227" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="E227" t="s">
-        <v>491</v>
+        <v>532</v>
+      </c>
+      <c r="F227">
+        <v>0.121</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="D228" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E228" t="s">
-        <v>521</v>
-      </c>
-      <c r="F228">
-        <v>0.121</v>
+        <v>572</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6592,36 +6571,36 @@
         <v>117</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="D229" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="E229" t="s">
-        <v>559</v>
+        <v>573</v>
+      </c>
+      <c r="F229">
+        <v>0.977</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="D230" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E230" t="s">
-        <v>206</v>
-      </c>
-      <c r="F230">
-        <v>0.121</v>
+        <v>574</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6629,36 +6608,36 @@
         <v>118</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="D231" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="E231" t="s">
-        <v>539</v>
+        <v>575</v>
+      </c>
+      <c r="F231">
+        <v>0.121</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="D232" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="E232" t="s">
-        <v>540</v>
-      </c>
-      <c r="F232">
-        <v>0.121</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6666,36 +6645,36 @@
         <v>119</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="s">
         <v>315</v>
       </c>
       <c r="D233" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E233" t="s">
-        <v>579</v>
+        <v>577</v>
+      </c>
+      <c r="F233">
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="s">
         <v>316</v>
       </c>
       <c r="D234" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E234" t="s">
-        <v>580</v>
-      </c>
-      <c r="F234">
-        <v>0.977</v>
+        <v>578</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6703,36 +6682,36 @@
         <v>120</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D235" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="E235" t="s">
-        <v>581</v>
+        <v>579</v>
+      </c>
+      <c r="F235">
+        <v>0.599</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D236" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="E236" t="s">
-        <v>582</v>
-      </c>
-      <c r="F236">
-        <v>0.121</v>
+        <v>580</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6740,36 +6719,36 @@
         <v>121</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>319</v>
       </c>
       <c r="D237" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E237" t="s">
-        <v>583</v>
+        <v>581</v>
+      </c>
+      <c r="F237">
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="s">
         <v>320</v>
       </c>
       <c r="D238" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E238" t="s">
-        <v>584</v>
-      </c>
-      <c r="F238">
-        <v>0.9429999999999999</v>
+        <v>582</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6777,36 +6756,36 @@
         <v>122</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="s">
         <v>321</v>
       </c>
       <c r="D239" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E239" t="s">
-        <v>585</v>
+        <v>583</v>
+      </c>
+      <c r="F239">
+        <v>0.206</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="D240" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="E240" t="s">
-        <v>586</v>
-      </c>
-      <c r="F240">
-        <v>0.599</v>
+        <v>510</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6814,36 +6793,36 @@
         <v>123</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="D241" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="E241" t="s">
-        <v>587</v>
+        <v>483</v>
+      </c>
+      <c r="F241">
+        <v>0.121</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D242" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E242" t="s">
-        <v>588</v>
-      </c>
-      <c r="F242">
-        <v>0.08599999999999999</v>
+        <v>584</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6851,36 +6830,36 @@
         <v>124</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D243" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E243" t="s">
-        <v>589</v>
+        <v>585</v>
+      </c>
+      <c r="F243">
+        <v>0.738</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="D244" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="E244" t="s">
-        <v>590</v>
-      </c>
-      <c r="F244">
-        <v>0.206</v>
+        <v>512</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6888,36 +6867,36 @@
         <v>125</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D245" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E245" t="s">
-        <v>519</v>
+        <v>513</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="D246" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
-      </c>
-      <c r="F246">
-        <v>0.121</v>
+        <v>586</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6925,36 +6904,36 @@
         <v>126</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D247" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E247" t="s">
-        <v>591</v>
+        <v>587</v>
+      </c>
+      <c r="F247">
+        <v>0.115</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D248" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="E248" t="s">
-        <v>592</v>
-      </c>
-      <c r="F248">
-        <v>0.738</v>
+        <v>588</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6962,36 +6941,36 @@
         <v>127</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="D249" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E249" t="s">
-        <v>491</v>
+        <v>589</v>
+      </c>
+      <c r="F249">
+        <v>0.121</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="D250" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="E250" t="s">
-        <v>521</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
+        <v>494</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6999,36 +6978,36 @@
         <v>128</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="s">
         <v>329</v>
       </c>
       <c r="D251" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E251" t="s">
-        <v>593</v>
+        <v>495</v>
+      </c>
+      <c r="F251">
+        <v>0.074</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="s">
         <v>330</v>
       </c>
       <c r="D252" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="E252" t="s">
-        <v>594</v>
-      </c>
-      <c r="F252">
-        <v>0.115</v>
+        <v>590</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -7036,36 +7015,36 @@
         <v>129</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>331</v>
       </c>
       <c r="D253" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E253" t="s">
-        <v>595</v>
+        <v>591</v>
+      </c>
+      <c r="F253">
+        <v>0.121</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="D254" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E254" t="s">
-        <v>596</v>
-      </c>
-      <c r="F254">
-        <v>0.121</v>
+        <v>556</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7073,36 +7052,36 @@
         <v>130</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="D255" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="E255" t="s">
-        <v>503</v>
+        <v>293</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D256" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="E256" t="s">
-        <v>504</v>
-      </c>
-      <c r="F256">
-        <v>0.074</v>
+        <v>592</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7110,36 +7089,36 @@
         <v>131</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D257" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E257" t="s">
-        <v>597</v>
+        <v>593</v>
+      </c>
+      <c r="F257">
+        <v>0.738</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D258" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="E258" t="s">
-        <v>598</v>
-      </c>
-      <c r="F258">
-        <v>0.121</v>
+        <v>594</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7147,36 +7126,36 @@
         <v>132</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="D259" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="E259" t="s">
-        <v>563</v>
+        <v>595</v>
+      </c>
+      <c r="F259">
+        <v>0.713</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="D260" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="E260" t="s">
-        <v>298</v>
-      </c>
-      <c r="F260">
-        <v>1</v>
+        <v>596</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7184,36 +7163,36 @@
         <v>133</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>337</v>
       </c>
       <c r="D261" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="E261" t="s">
-        <v>599</v>
+        <v>597</v>
+      </c>
+      <c r="F261">
+        <v>0.168</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="D262" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E262" t="s">
-        <v>600</v>
-      </c>
-      <c r="F262">
-        <v>0.738</v>
+        <v>598</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7221,36 +7200,36 @@
         <v>134</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D263" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="E263" t="s">
-        <v>601</v>
+        <v>599</v>
+      </c>
+      <c r="F263">
+        <v>0.762</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D264" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="E264" t="s">
-        <v>602</v>
-      </c>
-      <c r="F264">
-        <v>0.713</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7258,36 +7237,36 @@
         <v>135</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D265" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="E265" t="s">
-        <v>603</v>
+        <v>601</v>
+      </c>
+      <c r="F265">
+        <v>0.121</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D266" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="E266" t="s">
-        <v>604</v>
-      </c>
-      <c r="F266">
-        <v>0.168</v>
+        <v>602</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7295,36 +7274,36 @@
         <v>136</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>200</v>
+        <v>342</v>
       </c>
       <c r="D267" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="E267" t="s">
-        <v>605</v>
+        <v>603</v>
+      </c>
+      <c r="F267">
+        <v>0.114</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="D268" t="s">
         <v>420</v>
       </c>
       <c r="E268" t="s">
-        <v>606</v>
-      </c>
-      <c r="F268">
-        <v>0.762</v>
+        <v>604</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7332,36 +7311,36 @@
         <v>137</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>344</v>
+        <v>202</v>
       </c>
       <c r="D269" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E269" t="s">
-        <v>607</v>
+        <v>605</v>
+      </c>
+      <c r="F269">
+        <v>0.121</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>345</v>
+        <v>254</v>
       </c>
       <c r="D270" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E270" t="s">
-        <v>608</v>
-      </c>
-      <c r="F270">
-        <v>0.121</v>
+        <v>541</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7369,36 +7348,36 @@
         <v>138</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>346</v>
+        <v>255</v>
       </c>
       <c r="D271" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="E271" t="s">
-        <v>609</v>
+        <v>542</v>
+      </c>
+      <c r="F271">
+        <v>0.121</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>347</v>
+        <v>218</v>
       </c>
       <c r="D272" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="E272" t="s">
-        <v>610</v>
-      </c>
-      <c r="F272">
-        <v>0.114</v>
+        <v>606</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7406,36 +7385,36 @@
         <v>139</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D273" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E273" t="s">
-        <v>611</v>
+        <v>607</v>
+      </c>
+      <c r="F273">
+        <v>0.121</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="D274" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E274" t="s">
-        <v>612</v>
-      </c>
-      <c r="F274">
-        <v>0.121</v>
+        <v>543</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7443,36 +7422,36 @@
         <v>140</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D275" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E275" t="s">
-        <v>549</v>
+        <v>544</v>
+      </c>
+      <c r="F275">
+        <v>0.121</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="D276" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="E276" t="s">
-        <v>550</v>
-      </c>
-      <c r="F276">
-        <v>0.121</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7480,36 +7459,36 @@
         <v>141</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D277" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E277" t="s">
-        <v>613</v>
+        <v>525</v>
+      </c>
+      <c r="F277">
+        <v>0.121</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="D278" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E278" t="s">
-        <v>614</v>
-      </c>
-      <c r="F278">
-        <v>0.121</v>
+        <v>518</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7517,36 +7496,36 @@
         <v>142</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="D279" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E279" t="s">
-        <v>551</v>
+        <v>309</v>
+      </c>
+      <c r="F279">
+        <v>0.007</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="D280" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="E280" t="s">
-        <v>552</v>
-      </c>
-      <c r="F280">
-        <v>0.121</v>
+        <v>529</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7557,33 +7536,33 @@
         <v>0</v>
       </c>
       <c r="C281" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="D281" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="E281" t="s">
-        <v>532</v>
+        <v>528</v>
+      </c>
+      <c r="F281">
+        <v>0.429</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D282" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E282" t="s">
-        <v>533</v>
-      </c>
-      <c r="F282">
-        <v>0.121</v>
+        <v>541</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7591,36 +7570,36 @@
         <v>144</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="D283" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E283" t="s">
-        <v>526</v>
+        <v>542</v>
+      </c>
+      <c r="F283">
+        <v>0.165</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="D284" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E284" t="s">
-        <v>314</v>
-      </c>
-      <c r="F284">
-        <v>0.007</v>
+        <v>531</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7631,33 +7610,33 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="D285" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="E285" t="s">
-        <v>537</v>
+        <v>532</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
       <c r="C286" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D286" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="E286" t="s">
-        <v>536</v>
-      </c>
-      <c r="F286">
-        <v>0.429</v>
+        <v>608</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7665,36 +7644,36 @@
         <v>146</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>233</v>
+        <v>344</v>
       </c>
       <c r="D287" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>609</v>
+      </c>
+      <c r="F287">
+        <v>0.121</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B288">
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="D288" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E288" t="s">
-        <v>550</v>
-      </c>
-      <c r="F288">
-        <v>0.165</v>
+        <v>610</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7705,33 +7684,33 @@
         <v>0</v>
       </c>
       <c r="C289" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="D289" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="E289" t="s">
-        <v>539</v>
+        <v>611</v>
+      </c>
+      <c r="F289">
+        <v>0.141</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="D290" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="E290" t="s">
-        <v>540</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
+        <v>487</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7739,36 +7718,36 @@
         <v>148</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D291" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="E291" t="s">
-        <v>615</v>
+        <v>488</v>
+      </c>
+      <c r="F291">
+        <v>0.111</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="D292" t="s">
         <v>407</v>
       </c>
       <c r="E292" t="s">
-        <v>616</v>
-      </c>
-      <c r="F292">
-        <v>0.121</v>
+        <v>612</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7779,33 +7758,33 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="D293" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="E293" t="s">
-        <v>617</v>
+        <v>613</v>
+      </c>
+      <c r="F293">
+        <v>0.121</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B294">
         <v>0</v>
       </c>
       <c r="C294" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D294" t="s">
         <v>446</v>
       </c>
       <c r="E294" t="s">
-        <v>618</v>
-      </c>
-      <c r="F294">
-        <v>0.141</v>
+        <v>614</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7813,36 +7792,36 @@
         <v>150</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D295" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="E295" t="s">
-        <v>496</v>
+        <v>615</v>
+      </c>
+      <c r="F295">
+        <v>0.157</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D296" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E296" t="s">
-        <v>497</v>
-      </c>
-      <c r="F296">
-        <v>0.111</v>
+        <v>616</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7850,36 +7829,36 @@
         <v>151</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="D297" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="E297" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="F297">
+        <v>0.024</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="s">
-        <v>292</v>
+        <v>355</v>
       </c>
       <c r="D298" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="E298" t="s">
-        <v>620</v>
-      </c>
-      <c r="F298">
-        <v>0.121</v>
+        <v>618</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7887,36 +7866,36 @@
         <v>152</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="s">
         <v>356</v>
       </c>
       <c r="D299" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E299" t="s">
-        <v>621</v>
+        <v>619</v>
+      </c>
+      <c r="F299">
+        <v>0.972</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="s">
         <v>357</v>
       </c>
       <c r="D300" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E300" t="s">
-        <v>622</v>
-      </c>
-      <c r="F300">
-        <v>0.157</v>
+        <v>620</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7924,36 +7903,36 @@
         <v>153</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="s">
         <v>358</v>
       </c>
       <c r="D301" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E301" t="s">
-        <v>623</v>
+        <v>621</v>
+      </c>
+      <c r="F301">
+        <v>0.219</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="s">
         <v>359</v>
       </c>
       <c r="D302" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="E302" t="s">
-        <v>624</v>
-      </c>
-      <c r="F302">
-        <v>0.024</v>
+        <v>622</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7961,36 +7940,36 @@
         <v>154</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="s">
         <v>360</v>
       </c>
       <c r="D303" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E303" t="s">
-        <v>625</v>
+        <v>623</v>
+      </c>
+      <c r="F303">
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="s">
         <v>361</v>
       </c>
       <c r="D304" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E304" t="s">
-        <v>626</v>
-      </c>
-      <c r="F304">
-        <v>0.972</v>
+        <v>624</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7998,36 +7977,36 @@
         <v>155</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="s">
         <v>362</v>
       </c>
       <c r="D305" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E305" t="s">
-        <v>627</v>
+        <v>625</v>
+      </c>
+      <c r="F305">
+        <v>0.527</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="s">
         <v>363</v>
       </c>
       <c r="D306" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="E306" t="s">
-        <v>628</v>
-      </c>
-      <c r="F306">
-        <v>0.219</v>
+        <v>626</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -8035,36 +8014,36 @@
         <v>156</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="s">
         <v>364</v>
       </c>
       <c r="D307" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E307" t="s">
-        <v>629</v>
+        <v>627</v>
+      </c>
+      <c r="F307">
+        <v>0.193</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="s">
         <v>365</v>
       </c>
       <c r="D308" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E308" t="s">
-        <v>630</v>
-      </c>
-      <c r="F308">
-        <v>0.8179999999999999</v>
+        <v>628</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -8072,36 +8051,36 @@
         <v>157</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="s">
         <v>366</v>
       </c>
       <c r="D309" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="E309" t="s">
-        <v>631</v>
+        <v>629</v>
+      </c>
+      <c r="F309">
+        <v>0.513</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="s">
         <v>367</v>
       </c>
       <c r="D310" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E310" t="s">
-        <v>632</v>
-      </c>
-      <c r="F310">
-        <v>0.527</v>
+        <v>630</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -8109,36 +8088,36 @@
         <v>158</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="s">
         <v>368</v>
       </c>
       <c r="D311" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E311" t="s">
-        <v>633</v>
+        <v>631</v>
+      </c>
+      <c r="F311">
+        <v>0.47</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="s">
         <v>369</v>
       </c>
       <c r="D312" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="E312" t="s">
-        <v>634</v>
-      </c>
-      <c r="F312">
-        <v>0.193</v>
+        <v>632</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -8146,36 +8125,36 @@
         <v>159</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="s">
         <v>370</v>
       </c>
       <c r="D313" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E313" t="s">
-        <v>635</v>
+        <v>633</v>
+      </c>
+      <c r="F313">
+        <v>0.121</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="D314" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="E314" t="s">
-        <v>636</v>
-      </c>
-      <c r="F314">
-        <v>0.513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -8183,36 +8162,36 @@
         <v>160</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>372</v>
+        <v>253</v>
       </c>
       <c r="D315" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="E315" t="s">
-        <v>637</v>
+        <v>542</v>
+      </c>
+      <c r="F315">
+        <v>0.121</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D316" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="E316" t="s">
-        <v>638</v>
-      </c>
-      <c r="F316">
-        <v>0.47</v>
+        <v>634</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -8220,36 +8199,36 @@
         <v>161</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D317" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="E317" t="s">
-        <v>639</v>
+        <v>635</v>
+      </c>
+      <c r="F317">
+        <v>0.297</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D318" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="E318" t="s">
-        <v>640</v>
-      </c>
-      <c r="F318">
-        <v>0.121</v>
+        <v>636</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8257,36 +8236,36 @@
         <v>162</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="D319" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="E319" t="s">
-        <v>549</v>
+        <v>637</v>
+      </c>
+      <c r="F319">
+        <v>0.623</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="s">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="D320" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E320" t="s">
-        <v>550</v>
-      </c>
-      <c r="F320">
-        <v>0.121</v>
+        <v>638</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -8294,36 +8273,36 @@
         <v>163</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="s">
         <v>376</v>
       </c>
       <c r="D321" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="E321" t="s">
-        <v>641</v>
+        <v>639</v>
+      </c>
+      <c r="F321">
+        <v>0.991</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="s">
         <v>377</v>
       </c>
       <c r="D322" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="E322" t="s">
-        <v>642</v>
-      </c>
-      <c r="F322">
-        <v>0.297</v>
+        <v>640</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -8331,36 +8310,36 @@
         <v>164</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="s">
         <v>378</v>
       </c>
       <c r="D323" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="E323" t="s">
-        <v>643</v>
+        <v>641</v>
+      </c>
+      <c r="F323">
+        <v>0.607</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="s">
         <v>379</v>
       </c>
       <c r="D324" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E324" t="s">
-        <v>644</v>
-      </c>
-      <c r="F324">
-        <v>0.623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -8368,36 +8347,36 @@
         <v>165</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="s">
         <v>380</v>
       </c>
       <c r="D325" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="E325" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="F325">
+        <v>0.129</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="D326" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="E326" t="s">
-        <v>646</v>
-      </c>
-      <c r="F326">
-        <v>0.991</v>
+        <v>504</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -8405,36 +8384,36 @@
         <v>166</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="D327" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="E327" t="s">
-        <v>647</v>
+        <v>505</v>
+      </c>
+      <c r="F327">
+        <v>0.001</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D328" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="E328" t="s">
-        <v>648</v>
-      </c>
-      <c r="F328">
-        <v>0.607</v>
+        <v>644</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -8442,36 +8421,36 @@
         <v>167</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D329" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E329" t="s">
-        <v>649</v>
+        <v>645</v>
+      </c>
+      <c r="F329">
+        <v>0.657</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D330" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E330" t="s">
-        <v>650</v>
-      </c>
-      <c r="F330">
-        <v>0.129</v>
+        <v>646</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8479,36 +8458,36 @@
         <v>168</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="D331" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="E331" t="s">
-        <v>513</v>
+        <v>647</v>
+      </c>
+      <c r="F331">
+        <v>0.01</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="D332" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E332" t="s">
-        <v>514</v>
-      </c>
-      <c r="F332">
-        <v>0.001</v>
+        <v>648</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -8516,36 +8495,36 @@
         <v>169</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="s">
         <v>386</v>
       </c>
       <c r="D333" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>649</v>
+      </c>
+      <c r="F333">
+        <v>0.044</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="s">
         <v>387</v>
       </c>
       <c r="D334" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E334" t="s">
-        <v>652</v>
-      </c>
-      <c r="F334">
-        <v>0.657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -8553,36 +8532,36 @@
         <v>170</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="s">
         <v>388</v>
       </c>
       <c r="D335" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>651</v>
+      </c>
+      <c r="F335">
+        <v>0.475</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="s">
         <v>389</v>
       </c>
       <c r="D336" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="E336" t="s">
-        <v>654</v>
-      </c>
-      <c r="F336">
-        <v>0.01</v>
+        <v>652</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8590,7 +8569,7 @@
         <v>171</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="s">
         <v>390</v>
@@ -8599,27 +8578,27 @@
         <v>419</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>653</v>
+      </c>
+      <c r="F337">
+        <v>0.888</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="s">
-        <v>391</v>
+        <v>266</v>
       </c>
       <c r="D338" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E338" t="s">
-        <v>656</v>
-      </c>
-      <c r="F338">
-        <v>0.044</v>
+        <v>543</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8627,36 +8606,36 @@
         <v>172</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>392</v>
+        <v>267</v>
       </c>
       <c r="D339" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="E339" t="s">
-        <v>657</v>
+        <v>544</v>
+      </c>
+      <c r="F339">
+        <v>0.121</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="s">
-        <v>393</v>
+        <v>258</v>
       </c>
       <c r="D340" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="E340" t="s">
-        <v>658</v>
-      </c>
-      <c r="F340">
-        <v>0.475</v>
+        <v>654</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8664,36 +8643,36 @@
         <v>173</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="D341" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E341" t="s">
-        <v>659</v>
+        <v>655</v>
+      </c>
+      <c r="F341">
+        <v>0.374</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="s">
-        <v>395</v>
+        <v>248</v>
       </c>
       <c r="D342" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E342" t="s">
-        <v>660</v>
-      </c>
-      <c r="F342">
-        <v>0.888</v>
+        <v>506</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8701,36 +8680,36 @@
         <v>174</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="D343" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E343" t="s">
-        <v>551</v>
+        <v>507</v>
+      </c>
+      <c r="F343">
+        <v>0.121</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="D344" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E344" t="s">
-        <v>552</v>
-      </c>
-      <c r="F344">
-        <v>0.121</v>
+        <v>498</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8738,36 +8717,36 @@
         <v>175</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D345" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="E345" t="s">
-        <v>661</v>
+        <v>499</v>
+      </c>
+      <c r="F345">
+        <v>0.121</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
       <c r="D346" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="E346" t="s">
-        <v>662</v>
-      </c>
-      <c r="F346">
-        <v>0.374</v>
+        <v>519</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8775,36 +8754,36 @@
         <v>176</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="D347" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E347" t="s">
-        <v>515</v>
+        <v>484</v>
+      </c>
+      <c r="F347">
+        <v>0.121</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="D348" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E348" t="s">
-        <v>516</v>
-      </c>
-      <c r="F348">
-        <v>0.121</v>
+        <v>512</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8812,36 +8791,36 @@
         <v>177</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="D349" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E349" t="s">
-        <v>507</v>
+        <v>513</v>
+      </c>
+      <c r="F349">
+        <v>0.121</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D350" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E350" t="s">
-        <v>508</v>
-      </c>
-      <c r="F350">
-        <v>0.121</v>
+        <v>530</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8849,36 +8828,36 @@
         <v>178</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="s">
-        <v>348</v>
+        <v>200</v>
       </c>
       <c r="D351" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="E351" t="s">
-        <v>527</v>
+        <v>261</v>
+      </c>
+      <c r="F351">
+        <v>0.121</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="D352" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E352" t="s">
-        <v>490</v>
-      </c>
-      <c r="F352">
-        <v>0.121</v>
+        <v>630</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8886,36 +8865,36 @@
         <v>179</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>293</v>
+        <v>392</v>
       </c>
       <c r="D353" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="E353" t="s">
-        <v>491</v>
+        <v>631</v>
+      </c>
+      <c r="F353">
+        <v>0.481</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="D354" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="E354" t="s">
-        <v>521</v>
-      </c>
-      <c r="F354">
-        <v>0.121</v>
+        <v>656</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8923,36 +8902,36 @@
         <v>180</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="D355" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="E355" t="s">
-        <v>538</v>
+        <v>657</v>
+      </c>
+      <c r="F355">
+        <v>0.674</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="s">
-        <v>202</v>
+        <v>393</v>
       </c>
       <c r="D356" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E356" t="s">
-        <v>267</v>
-      </c>
-      <c r="F356">
-        <v>0.121</v>
+        <v>658</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8960,36 +8939,36 @@
         <v>181</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D357" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E357" t="s">
-        <v>637</v>
+        <v>659</v>
+      </c>
+      <c r="F357">
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D358" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="E358" t="s">
-        <v>638</v>
-      </c>
-      <c r="F358">
-        <v>0.481</v>
+        <v>660</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8997,36 +8976,36 @@
         <v>182</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="D359" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="E359" t="s">
-        <v>663</v>
+        <v>661</v>
+      </c>
+      <c r="F359">
+        <v>0.149</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D360" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E360" t="s">
-        <v>664</v>
-      </c>
-      <c r="F360">
-        <v>0.674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -9034,109 +9013,18 @@
         <v>183</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="s">
         <v>398</v>
       </c>
       <c r="D361" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="E361" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
-      <c r="A362" t="s">
-        <v>183</v>
-      </c>
-      <c r="B362">
-        <v>1</v>
-      </c>
-      <c r="C362" t="s">
-        <v>399</v>
-      </c>
-      <c r="D362" t="s">
-        <v>443</v>
-      </c>
-      <c r="E362" t="s">
-        <v>666</v>
-      </c>
-      <c r="F362">
-        <v>0.5669999999999999</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
-      <c r="A363" t="s">
-        <v>184</v>
-      </c>
-      <c r="B363">
-        <v>0</v>
-      </c>
-      <c r="C363" t="s">
-        <v>400</v>
-      </c>
-      <c r="D363" t="s">
-        <v>464</v>
-      </c>
-      <c r="E363" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" t="s">
-        <v>184</v>
-      </c>
-      <c r="B364">
-        <v>1</v>
-      </c>
-      <c r="C364" t="s">
-        <v>401</v>
-      </c>
-      <c r="D364" t="s">
-        <v>465</v>
-      </c>
-      <c r="E364" t="s">
-        <v>668</v>
-      </c>
-      <c r="F364">
-        <v>0.149</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="A365" t="s">
-        <v>185</v>
-      </c>
-      <c r="B365">
-        <v>0</v>
-      </c>
-      <c r="C365" t="s">
-        <v>402</v>
-      </c>
-      <c r="D365" t="s">
-        <v>476</v>
-      </c>
-      <c r="E365" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="A366" t="s">
-        <v>185</v>
-      </c>
-      <c r="B366">
-        <v>1</v>
-      </c>
-      <c r="C366" t="s">
-        <v>403</v>
-      </c>
-      <c r="D366" t="s">
-        <v>477</v>
-      </c>
-      <c r="E366" t="s">
-        <v>670</v>
-      </c>
-      <c r="F366">
+        <v>663</v>
+      </c>
+      <c r="F361">
         <v>0.302</v>
       </c>
     </row>

--- a/notebooks/Table1_hairsalon.xlsx
+++ b/notebooks/Table1_hairsalon.xlsx
@@ -61,202 +61,202 @@
     <t>lastsvcavg</t>
   </si>
   <si>
-    <t>x0_wkday-1.0 hour-10.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-11.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-12.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-13.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-14.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-15.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-16.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-17.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-18.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-19.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-8.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-1.0 hour-9.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-10.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-11.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-12.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-13.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-14.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-15.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-16.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-17.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-18.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-19.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-8.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-2.0 hour-9.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-10.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-11.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-12.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-13.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-14.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-15.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-16.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-17.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-18.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-19.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-8.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-3.0 hour-9.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-10.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-11.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-12.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-13.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-14.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-15.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-16.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-17.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-18.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-19.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-8.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-4.0 hour-9.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-10.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-11.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-12.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-13.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-14.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-15.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-16.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-17.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-8.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-5.0 hour-9.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-6.0 hour-10.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-6.0 hour-11.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-6.0 hour-12.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-6.0 hour-13.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-6.0 hour-14.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-6.0 hour-15.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-6.0 hour-16.0</t>
-  </si>
-  <si>
-    <t>x0_wkday-6.0 hour-9.0</t>
+    <t>x0_wkday_1.0_hour_10.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_11.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_12.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_13.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_14.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_15.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_16.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_17.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_18.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_19.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_8.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_1.0_hour_9.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_10.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_11.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_12.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_13.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_14.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_15.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_16.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_17.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_18.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_19.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_8.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_2.0_hour_9.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_10.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_11.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_12.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_13.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_14.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_15.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_16.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_17.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_18.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_19.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_8.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_3.0_hour_9.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_10.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_11.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_12.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_13.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_14.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_15.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_16.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_17.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_18.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_19.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_8.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_4.0_hour_9.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_10.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_11.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_12.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_13.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_14.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_15.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_16.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_17.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_8.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_5.0_hour_9.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_6.0_hour_10.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_6.0_hour_11.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_6.0_hour_12.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_6.0_hour_13.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_6.0_hour_14.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_6.0_hour_15.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_6.0_hour_16.0</t>
+  </si>
+  <si>
+    <t>x0_wkday_6.0_hour_9.0</t>
   </si>
   <si>
     <t>x1_COLOR</t>
